--- a/Instances/ComponentSubs4_F_6_N.xlsx
+++ b/Instances/ComponentSubs4_F_6_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D209C37-1062-4542-988C-35CCF20BB854}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD70CA-1D39-420E-A2F2-65A660D78710}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>C2</t>
   </si>
   <si>
-    <t>ComponentSubs</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Lumpy</t>
+  </si>
+  <si>
+    <t>ComponentSubs4_F_6_N</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -186,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +495,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -547,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -589,10 +592,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
@@ -601,10 +604,10 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -667,7 +670,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -696,7 +699,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -783,7 +786,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -812,7 +815,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -848,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -862,10 +865,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
@@ -874,10 +877,10 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -940,7 +943,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -969,7 +972,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1085,7 +1088,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1122,7 +1125,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1135,10 +1138,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
@@ -1147,10 +1150,10 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1213,7 +1216,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1395,7 +1398,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1503,7 +1506,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1535,7 +1538,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1631,7 +1634,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1663,7 +1666,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1702,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1716,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>19</v>
@@ -1728,10 +1731,10 @@
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -1747,6 +1750,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -1771,6 +1777,9 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -1791,20 +1800,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f ca="1">RANDBETWEEN(200,400)</f>
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:E4" ca="1" si="0">RANDBETWEEN(200,400)</f>
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1824,20 +1829,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:E13" ca="1" si="1">RANDBETWEEN(200,400)</f>
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1857,20 +1858,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>387</v>
+        <v>326</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1890,20 +1887,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>252</v>
+        <v>400</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1919,19 +1912,19 @@
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(200,400)</f>
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:O7" ca="1" si="2">RANDBETWEEN(200,400)</f>
-        <v>344</v>
+        <f t="shared" ref="M7:O7" ca="1" si="0">RANDBETWEEN(200,400)</f>
+        <v>228</v>
       </c>
       <c r="N7">
-        <f t="shared" ca="1" si="2"/>
-        <v>229</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>245</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="2"/>
-        <v>238</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1939,20 +1932,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1967,20 +1956,20 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8:O16" ca="1" si="3">RANDBETWEEN(200,400)</f>
-        <v>293</v>
+        <f t="shared" ref="L8:O16" ca="1" si="1">RANDBETWEEN(200,400)</f>
+        <v>204</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="3"/>
-        <v>303</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>297</v>
       </c>
       <c r="N8">
-        <f t="shared" ca="1" si="3"/>
-        <v>393</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>397</v>
       </c>
       <c r="O8">
-        <f t="shared" ca="1" si="3"/>
-        <v>295</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1988,20 +1977,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2016,20 +2001,20 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="3"/>
-        <v>393</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>247</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="3"/>
-        <v>270</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>343</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="3"/>
-        <v>302</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>396</v>
       </c>
       <c r="O9">
-        <f t="shared" ca="1" si="3"/>
-        <v>321</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2037,20 +2022,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>261</v>
+        <v>335</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2065,20 +2046,20 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="3"/>
-        <v>238</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>243</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="3"/>
-        <v>263</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>334</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="3"/>
-        <v>400</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>203</v>
       </c>
       <c r="O10">
-        <f t="shared" ca="1" si="3"/>
-        <v>371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2086,20 +2067,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="1"/>
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2114,20 +2091,20 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" ca="1" si="3"/>
-        <v>280</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="3"/>
-        <v>371</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>252</v>
       </c>
       <c r="N11">
-        <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>332</v>
       </c>
       <c r="O11">
-        <f t="shared" ca="1" si="3"/>
-        <v>310</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2135,20 +2112,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -2163,20 +2136,20 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v>389</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>224</v>
       </c>
       <c r="N12">
-        <f t="shared" ca="1" si="3"/>
-        <v>306</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>393</v>
       </c>
       <c r="O12">
-        <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2184,20 +2157,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -2212,74 +2181,74 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="3"/>
-        <v>268</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>266</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="3"/>
-        <v>399</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
       </c>
       <c r="N13">
-        <f t="shared" ca="1" si="3"/>
-        <v>331</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>321</v>
       </c>
       <c r="O13">
-        <f t="shared" ca="1" si="3"/>
-        <v>390</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L14">
-        <f t="shared" ca="1" si="3"/>
-        <v>339</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>365</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="3"/>
-        <v>244</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>366</v>
       </c>
       <c r="N14">
-        <f t="shared" ca="1" si="3"/>
-        <v>260</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>341</v>
       </c>
       <c r="O14">
-        <f t="shared" ca="1" si="3"/>
-        <v>249</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L15">
-        <f t="shared" ca="1" si="3"/>
-        <v>358</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>283</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="3"/>
-        <v>373</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>256</v>
       </c>
       <c r="N15">
-        <f t="shared" ca="1" si="3"/>
-        <v>290</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>399</v>
       </c>
       <c r="O15">
-        <f t="shared" ca="1" si="3"/>
-        <v>389</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L16">
-        <f t="shared" ca="1" si="3"/>
-        <v>388</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>200</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="3"/>
-        <v>298</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>357</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="3"/>
-        <v>348</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>204</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="3"/>
-        <v>201</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2292,15 +2261,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2308,13 +2277,25 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2330,8 +2311,20 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2347,120 +2340,543 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>71.8125</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47.90625</v>
+        <v>98</v>
       </c>
       <c r="C5">
-        <v>61.46875</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>51.5625</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>59.765625</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61.7578125</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>53.28125</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f ca="1">RANDBETWEEN(50,100)</f>
+        <v>91</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:P17" ca="1" si="0">RANDBETWEEN(50,100)</f>
+        <v>97</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>69.15234375</v>
+        <v>86</v>
       </c>
       <c r="C8">
-        <v>53.89453125</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M17" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>72</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>95.001953125</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>51.59375</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>69</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>92</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>97</v>
+      </c>
+      <c r="E12">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>97</v>
+      </c>
+      <c r="D13">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <v>74</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ca="1" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="M16">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.35">
+      <c r="M17">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ca="1" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2513,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2546,17 +2962,49 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
     </row>

--- a/Instances/ComponentSubs4_F_6_N.xlsx
+++ b/Instances/ComponentSubs4_F_6_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD70CA-1D39-420E-A2F2-65A660D78710}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB8DFC-6BB4-41AA-BD8A-0296C3E62E87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,19 +1912,19 @@
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(200,400)</f>
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="M7">
         <f t="shared" ref="M7:O7" ca="1" si="0">RANDBETWEEN(200,400)</f>
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>361</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1957,19 +1957,19 @@
       </c>
       <c r="L8">
         <f t="shared" ref="L8:O16" ca="1" si="1">RANDBETWEEN(200,400)</f>
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>397</v>
+        <v>269</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -2002,19 +2002,19 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>266</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>396</v>
+        <v>334</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="1"/>
-        <v>346</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2047,19 +2047,19 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>361</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>334</v>
+        <v>230</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>366</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>244</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2092,19 +2092,19 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="1"/>
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="1"/>
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2137,19 +2137,19 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="1"/>
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>369</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="1"/>
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="1"/>
-        <v>270</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2182,73 +2182,73 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>328</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="1"/>
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="1"/>
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>266</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="1"/>
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="1"/>
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L15">
         <f t="shared" ca="1" si="1"/>
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="1"/>
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="1"/>
-        <v>304</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>264</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -2494,19 +2494,19 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:P17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -2539,19 +2539,19 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2719,19 +2719,19 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -2764,19 +2764,19 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -2809,73 +2809,73 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/ComponentSubs4_F_6_N.xlsx
+++ b/Instances/ComponentSubs4_F_6_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\PycharmProjects\scm\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CB8DFC-6BB4-41AA-BD8A-0296C3E62E87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3FCB2-E0C2-45C8-8C44-20A640621FFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1912,19 +1912,19 @@
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(200,400)</f>
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="M7">
         <f t="shared" ref="M7:O7" ca="1" si="0">RANDBETWEEN(200,400)</f>
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1957,19 +1957,19 @@
       </c>
       <c r="L8">
         <f t="shared" ref="L8:O16" ca="1" si="1">RANDBETWEEN(200,400)</f>
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>396</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="1"/>
-        <v>324</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -2002,19 +2002,19 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="1"/>
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -2047,19 +2047,19 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="1"/>
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="1"/>
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="1"/>
-        <v>359</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -2092,19 +2092,19 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="1"/>
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="1"/>
-        <v>278</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -2137,19 +2137,19 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="1"/>
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="1"/>
-        <v>378</v>
+        <v>233</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="1"/>
-        <v>382</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -2182,73 +2182,73 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="1"/>
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="1"/>
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L14">
         <f t="shared" ca="1" si="1"/>
-        <v>266</v>
+        <v>399</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="1"/>
-        <v>383</v>
+        <v>218</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L15">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>302</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="1"/>
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L16">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>385</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="1"/>
-        <v>237</v>
+        <v>349</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="1"/>
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2494,19 +2494,19 @@
       </c>
       <c r="M7">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:P17" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -2539,19 +2539,19 @@
       </c>
       <c r="M8">
         <f t="shared" ref="M8:M17" ca="1" si="1">RANDBETWEEN(50,100)</f>
+        <v>88</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ca="1" si="0"/>
         <v>80</v>
       </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -2584,19 +2584,19 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -2629,19 +2629,19 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ca="1" si="0"/>
         <v>99</v>
       </c>
-      <c r="O11">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -2719,19 +2719,19 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -2764,19 +2764,19 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -2809,73 +2809,73 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.35">
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
